--- a/a.xlsx
+++ b/a.xlsx
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>777.5652</v>
+        <v>937.31389</v>
       </c>
       <c r="C3" t="n">
-        <v>777.5652</v>
+        <v>937.31389</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>747.7391</v>
+        <v>1082.34911</v>
       </c>
       <c r="C4" t="n">
-        <v>747.7391</v>
+        <v>1082.34911</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>709.57082</v>
+        <v>1070.96425</v>
       </c>
       <c r="C5" t="n">
-        <v>709.57082</v>
+        <v>1070.96425</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831.48851</v>
+        <v>1059.48524</v>
       </c>
       <c r="C6" t="n">
-        <v>831.48851</v>
+        <v>1059.48524</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1145.00019</v>
+        <v>1047.34378</v>
       </c>
       <c r="C7" t="n">
-        <v>1145.00019</v>
+        <v>1047.34378</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832.37045</v>
+        <v>1036.33958</v>
       </c>
       <c r="C8" t="n">
-        <v>832.37045</v>
+        <v>1036.33958</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>724.3252</v>
+        <v>1027.06795</v>
       </c>
       <c r="C9" t="n">
-        <v>724.3252</v>
+        <v>1027.06795</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857.5781500000001</v>
+        <v>1019.34358</v>
       </c>
       <c r="C10" t="n">
-        <v>857.5781500000001</v>
+        <v>1019.34358</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1366.02512</v>
+        <v>1012.82493</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.02512</v>
+        <v>1012.82493</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581.45769</v>
+        <v>1007.30886</v>
       </c>
       <c r="C12" t="n">
-        <v>581.45769</v>
+        <v>1007.30886</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>735.99123</v>
+        <v>1002.64572</v>
       </c>
       <c r="C13" t="n">
-        <v>735.99123</v>
+        <v>1002.64572</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838.02413</v>
+        <v>998.6743300000001</v>
       </c>
       <c r="C14" t="n">
-        <v>838.02413</v>
+        <v>998.6743300000001</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1244.52741</v>
+        <v>995.61556</v>
       </c>
       <c r="C15" t="n">
-        <v>1244.52741</v>
+        <v>995.61556</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625.33964</v>
+        <v>992.80211</v>
       </c>
       <c r="C16" t="n">
-        <v>625.33964</v>
+        <v>992.80211</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>753.25065</v>
+        <v>990.25661</v>
       </c>
       <c r="C17" t="n">
-        <v>753.25065</v>
+        <v>990.25661</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>863.29616</v>
+        <v>988.00487</v>
       </c>
       <c r="C18" t="n">
-        <v>863.29616</v>
+        <v>988.00487</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1188.97257</v>
+        <v>985.99468</v>
       </c>
       <c r="C19" t="n">
-        <v>1188.97257</v>
+        <v>985.99468</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>858.58692</v>
+        <v>984.22207</v>
       </c>
       <c r="C20" t="n">
-        <v>858.58692</v>
+        <v>984.22207</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>815.7069300000001</v>
+        <v>982.64662</v>
       </c>
       <c r="C21" t="n">
-        <v>815.7069300000001</v>
+        <v>982.64662</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>801.4470700000001</v>
+        <v>981.24358</v>
       </c>
       <c r="C22" t="n">
-        <v>914.8896</v>
+        <v>981.24358</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1047.11712</v>
+        <v>979.92995</v>
       </c>
       <c r="C23" t="n">
-        <v>1047.11712</v>
+        <v>979.92995</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1082.03375</v>
+        <v>978.7531</v>
       </c>
       <c r="C24" t="n">
-        <v>1082.03375</v>
+        <v>978.7531</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>795.85876</v>
+        <v>977.7140000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>795.85876</v>
+        <v>977.7140000000001</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>832.41749</v>
+        <v>976.76724</v>
       </c>
       <c r="C26" t="n">
-        <v>832.41749</v>
+        <v>976.76724</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>894.90734</v>
+        <v>975.92598</v>
       </c>
       <c r="C27" t="n">
-        <v>894.90734</v>
+        <v>975.92598</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1097.16829</v>
+        <v>975.2119</v>
       </c>
       <c r="C28" t="n">
-        <v>1097.16829</v>
+        <v>975.2119</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>867.35925</v>
+        <v>974.61257</v>
       </c>
       <c r="C29" t="n">
-        <v>867.35925</v>
+        <v>974.61257</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>870.23261</v>
+        <v>974.09457</v>
       </c>
       <c r="C30" t="n">
-        <v>870.23261</v>
+        <v>974.09457</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>799.99668</v>
+        <v>973.64235</v>
       </c>
       <c r="C31" t="n">
-        <v>869.89075</v>
+        <v>973.64235</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>874.69344</v>
+        <v>973.24017</v>
       </c>
       <c r="C32" t="n">
-        <v>1020.685</v>
+        <v>973.24017</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1081.13279</v>
+        <v>972.88198</v>
       </c>
       <c r="C33" t="n">
-        <v>1081.13279</v>
+        <v>972.88198</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1138.1628</v>
+        <v>972.5667</v>
       </c>
       <c r="C34" t="n">
-        <v>1138.1628</v>
+        <v>972.5667</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>687.9777800000001</v>
+        <v>972.28505</v>
       </c>
       <c r="C35" t="n">
-        <v>687.9777800000001</v>
+        <v>972.28505</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>757.2341</v>
+        <v>972.03076</v>
       </c>
       <c r="C36" t="n">
-        <v>757.2341</v>
+        <v>972.03076</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>849.70776</v>
+        <v>971.79135</v>
       </c>
       <c r="C37" t="n">
-        <v>849.70776</v>
+        <v>971.79135</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1038.62727</v>
+        <v>971.57094</v>
       </c>
       <c r="C38" t="n">
-        <v>1038.62727</v>
+        <v>971.57094</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>986.78889</v>
+        <v>971.41488</v>
       </c>
       <c r="C39" t="n">
-        <v>986.78889</v>
+        <v>971.41488</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>775.74636</v>
+        <v>971.32265</v>
       </c>
       <c r="C40" t="n">
-        <v>775.74636</v>
+        <v>971.32265</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>768.99634</v>
+        <v>971.27251</v>
       </c>
       <c r="C41" t="n">
-        <v>1319.13745</v>
+        <v>971.27251</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>850.05144</v>
+        <v>971.26267</v>
       </c>
       <c r="C42" t="n">
-        <v>1566.11842</v>
+        <v>971.26267</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1207.12693</v>
+        <v>971.25896</v>
       </c>
       <c r="C43" t="n">
-        <v>1207.12693</v>
+        <v>971.25896</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>666.85547</v>
+        <v>971.28647</v>
       </c>
       <c r="C44" t="n">
-        <v>666.85547</v>
+        <v>971.28647</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>754.95032</v>
+        <v>971.34595</v>
       </c>
       <c r="C45" t="n">
-        <v>754.95032</v>
+        <v>971.34595</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>841.20019</v>
+        <v>971.40701</v>
       </c>
       <c r="C46" t="n">
-        <v>841.20019</v>
+        <v>971.40701</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1069.79769</v>
+        <v>971.46123</v>
       </c>
       <c r="C47" t="n">
-        <v>1069.79769</v>
+        <v>971.46123</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>992.42911</v>
+        <v>971.51776</v>
       </c>
       <c r="C48" t="n">
-        <v>992.42911</v>
+        <v>971.51776</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>727.13616</v>
+        <v>971.58426</v>
       </c>
       <c r="C49" t="n">
-        <v>727.13616</v>
+        <v>971.58426</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>788.65432</v>
+        <v>971.64135</v>
       </c>
       <c r="C50" t="n">
-        <v>788.65432</v>
+        <v>971.64135</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>858.55447</v>
+        <v>971.57605</v>
       </c>
       <c r="C51" t="n">
-        <v>1538.35461</v>
+        <v>971.57605</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1183.17977</v>
+        <v>971.49416</v>
       </c>
       <c r="C52" t="n">
-        <v>1183.17977</v>
+        <v>971.49416</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>676.25369</v>
+        <v>971.37176</v>
       </c>
       <c r="C53" t="n">
-        <v>676.25369</v>
+        <v>971.37176</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>754.88391</v>
+        <v>971.23627</v>
       </c>
       <c r="C54" t="n">
-        <v>754.88391</v>
+        <v>971.23627</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>838.63314</v>
+        <v>971.10811</v>
       </c>
       <c r="C55" t="n">
-        <v>838.63314</v>
+        <v>971.10811</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1021.23858</v>
+        <v>970.9735899999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1021.23858</v>
+        <v>970.9735899999999</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>965.1749</v>
+        <v>970.82106</v>
       </c>
       <c r="C57" t="n">
-        <v>965.1749</v>
+        <v>970.82106</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>746.19948</v>
+        <v>970.6685199999999</v>
       </c>
       <c r="C58" t="n">
-        <v>746.19948</v>
+        <v>970.6685199999999</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>781.41612</v>
+        <v>970.51666</v>
       </c>
       <c r="C59" t="n">
-        <v>781.41612</v>
+        <v>970.51666</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>850.80954</v>
+        <v>970.3522</v>
       </c>
       <c r="C60" t="n">
-        <v>1501.47507</v>
+        <v>970.3522</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1168.24814</v>
+        <v>970.17885</v>
       </c>
       <c r="C61" t="n">
-        <v>1168.24814</v>
+        <v>970.17885</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>677.2578600000001</v>
+        <v>970.01134</v>
       </c>
       <c r="C62" t="n">
-        <v>677.2578600000001</v>
+        <v>970.01134</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>750.01067</v>
+        <v>969.89154</v>
       </c>
       <c r="C63" t="n">
-        <v>750.01067</v>
+        <v>969.89154</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>827.4402</v>
+        <v>969.82326</v>
       </c>
       <c r="C64" t="n">
-        <v>827.4402</v>
+        <v>969.82326</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1010.06362</v>
+        <v>969.81342</v>
       </c>
       <c r="C65" t="n">
-        <v>1010.06362</v>
+        <v>969.81342</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>947.77433</v>
+        <v>969.80406</v>
       </c>
       <c r="C66" t="n">
-        <v>947.77433</v>
+        <v>969.80406</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>740.68957</v>
+        <v>969.81636</v>
       </c>
       <c r="C67" t="n">
-        <v>740.68957</v>
+        <v>969.81636</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>790.885</v>
+        <v>969.8635</v>
       </c>
       <c r="C68" t="n">
-        <v>790.885</v>
+        <v>969.8635</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>856.75515</v>
+        <v>969.93357</v>
       </c>
       <c r="C69" t="n">
-        <v>1456.84265</v>
+        <v>969.93357</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1135.28487</v>
+        <v>969.97965</v>
       </c>
       <c r="C70" t="n">
-        <v>1135.28487</v>
+        <v>969.97965</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>685.29571</v>
+        <v>970.00671</v>
       </c>
       <c r="C71" t="n">
-        <v>685.29571</v>
+        <v>970.00671</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>727.07129</v>
+        <v>970.05927</v>
       </c>
       <c r="C72" t="n">
-        <v>727.07129</v>
+        <v>970.05927</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>814.21944</v>
+        <v>970.0944</v>
       </c>
       <c r="C73" t="n">
-        <v>1109.12343</v>
+        <v>970.0944</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1024.88044</v>
+        <v>970.13978</v>
       </c>
       <c r="C74" t="n">
-        <v>1024.88044</v>
+        <v>970.13978</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>816.8743899999999</v>
+        <v>970.13783</v>
       </c>
       <c r="C75" t="n">
-        <v>816.8743899999999</v>
+        <v>970.13783</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>696.63755</v>
+        <v>970.20219</v>
       </c>
       <c r="C76" t="n">
-        <v>696.63755</v>
+        <v>970.20219</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>799.6147999999999</v>
+        <v>970.29527</v>
       </c>
       <c r="C77" t="n">
-        <v>1323.64126</v>
+        <v>970.29527</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1029.66992</v>
+        <v>970.3904</v>
       </c>
       <c r="C78" t="n">
-        <v>1029.66992</v>
+        <v>970.3904</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1122.1654</v>
+        <v>970.4697200000001</v>
       </c>
       <c r="C79" t="n">
-        <v>1122.1654</v>
+        <v>970.4697200000001</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>683.35604</v>
+        <v>970.57105</v>
       </c>
       <c r="C80" t="n">
-        <v>683.35604</v>
+        <v>970.57105</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>723.37567</v>
+        <v>970.70222</v>
       </c>
       <c r="C81" t="n">
-        <v>723.37567</v>
+        <v>970.70222</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>812.13829</v>
+        <v>970.89152</v>
       </c>
       <c r="C82" t="n">
-        <v>1150.38589</v>
+        <v>970.89152</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1025.13078</v>
+        <v>971.10779</v>
       </c>
       <c r="C83" t="n">
-        <v>1025.13078</v>
+        <v>971.10779</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>945.71277</v>
+        <v>971.35146</v>
       </c>
       <c r="C84" t="n">
-        <v>945.71277</v>
+        <v>971.35146</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>721.0817500000001</v>
+        <v>971.62362</v>
       </c>
       <c r="C85" t="n">
-        <v>721.0817500000001</v>
+        <v>971.62362</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>781.87544</v>
+        <v>971.92374</v>
       </c>
       <c r="C86" t="n">
-        <v>781.87544</v>
+        <v>971.92374</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>852.08883</v>
+        <v>972.01508</v>
       </c>
       <c r="C87" t="n">
-        <v>1521.56022</v>
+        <v>972.01508</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1157.70942</v>
+        <v>972.06385</v>
       </c>
       <c r="C88" t="n">
-        <v>1157.70942</v>
+        <v>972.06385</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>683.6407</v>
+        <v>972.08277</v>
       </c>
       <c r="C89" t="n">
-        <v>683.6407</v>
+        <v>972.08277</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>727.3362100000001</v>
+        <v>972.08719</v>
       </c>
       <c r="C90" t="n">
-        <v>727.3362100000001</v>
+        <v>972.08719</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>815.50235</v>
+        <v>972.06526</v>
       </c>
       <c r="C91" t="n">
-        <v>1085.97089</v>
+        <v>972.06526</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1030.66876</v>
+        <v>972.03048</v>
       </c>
       <c r="C92" t="n">
-        <v>1030.66876</v>
+        <v>972.03048</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>960.6326299999999</v>
+        <v>971.99243</v>
       </c>
       <c r="C93" t="n">
-        <v>960.6326299999999</v>
+        <v>971.99243</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>725.01967</v>
+        <v>971.96794</v>
       </c>
       <c r="C94" t="n">
-        <v>725.01967</v>
+        <v>971.96794</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>785.37627</v>
+        <v>971.9426099999999</v>
       </c>
       <c r="C95" t="n">
-        <v>785.37627</v>
+        <v>971.9426099999999</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>854.14528</v>
+        <v>971.9159</v>
       </c>
       <c r="C96" t="n">
-        <v>1496.97441</v>
+        <v>971.9159</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1157.35364</v>
+        <v>971.89989</v>
       </c>
       <c r="C97" t="n">
-        <v>1157.35364</v>
+        <v>971.89989</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>679.43959</v>
+        <v>971.89045</v>
       </c>
       <c r="C98" t="n">
-        <v>679.43959</v>
+        <v>971.89045</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>756.48069</v>
+        <v>971.81813</v>
       </c>
       <c r="C99" t="n">
-        <v>756.48069</v>
+        <v>971.81813</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>841.31454</v>
+        <v>971.82388</v>
       </c>
       <c r="C100" t="n">
-        <v>841.31454</v>
+        <v>971.82388</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1028.34021</v>
+        <v>971.85257</v>
       </c>
       <c r="C101" t="n">
-        <v>1028.34021</v>
+        <v>971.85257</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>947.49464</v>
+        <v>971.8835</v>
       </c>
       <c r="C102" t="n">
-        <v>947.49464</v>
+        <v>971.8835</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>762.08923</v>
+        <v>971.92261</v>
       </c>
       <c r="C103" t="n">
-        <v>762.08923</v>
+        <v>971.92261</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>777.2368300000001</v>
+        <v>971.98166</v>
       </c>
       <c r="C104" t="n">
-        <v>1339.47968</v>
+        <v>971.98166</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>858.27308</v>
+        <v>972.02856</v>
       </c>
       <c r="C105" t="n">
-        <v>1568.50604</v>
+        <v>972.02856</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1205.5655</v>
+        <v>972.08605</v>
       </c>
       <c r="C106" t="n">
-        <v>1205.5655</v>
+        <v>972.08605</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>666.59264</v>
+        <v>972.14693</v>
       </c>
       <c r="C107" t="n">
-        <v>666.59264</v>
+        <v>972.14693</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>760.19511</v>
+        <v>972.21534</v>
       </c>
       <c r="C108" t="n">
-        <v>760.19511</v>
+        <v>972.21534</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>849.76046</v>
+        <v>972.31738</v>
       </c>
       <c r="C109" t="n">
-        <v>849.76046</v>
+        <v>972.31738</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1050.66642</v>
+        <v>972.4216699999999</v>
       </c>
       <c r="C110" t="n">
-        <v>1050.66642</v>
+        <v>972.4216699999999</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>994.57119</v>
+        <v>972.29757</v>
       </c>
       <c r="C111" t="n">
-        <v>994.57119</v>
+        <v>972.29757</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>798.1794599999999</v>
+        <v>972.11586</v>
       </c>
       <c r="C112" t="n">
-        <v>798.1794599999999</v>
+        <v>972.11586</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>784.15207</v>
+        <v>971.90482</v>
       </c>
       <c r="C113" t="n">
-        <v>1316.46511</v>
+        <v>971.90482</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>874.99373</v>
+        <v>971.66966</v>
       </c>
       <c r="C114" t="n">
-        <v>1542.17204</v>
+        <v>971.66966</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1219.89683</v>
+        <v>971.4449499999999</v>
       </c>
       <c r="C115" t="n">
-        <v>1219.89683</v>
+        <v>971.4449499999999</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>734.1411900000001</v>
+        <v>971.1994</v>
       </c>
       <c r="C116" t="n">
-        <v>734.1411900000001</v>
+        <v>971.1994</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>801.30852</v>
+        <v>970.99641</v>
       </c>
       <c r="C117" t="n">
-        <v>801.30852</v>
+        <v>970.99641</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>827.49125</v>
+        <v>970.82224</v>
       </c>
       <c r="C118" t="n">
-        <v>1076.04248</v>
+        <v>970.82224</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1082.34497</v>
+        <v>970.6833800000001</v>
       </c>
       <c r="C119" t="n">
-        <v>1082.34497</v>
+        <v>970.6833800000001</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1112.92543</v>
+        <v>970.5592799999999</v>
       </c>
       <c r="C120" t="n">
-        <v>1112.92543</v>
+        <v>970.5592799999999</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>832.50661</v>
+        <v>970.44503</v>
       </c>
       <c r="C121" t="n">
-        <v>832.50661</v>
+        <v>970.44503</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>777.3906500000001</v>
+        <v>970.36322</v>
       </c>
       <c r="C122" t="n">
-        <v>921.8670100000001</v>
+        <v>970.36322</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>876.2957</v>
+        <v>970.30299</v>
       </c>
       <c r="C123" t="n">
-        <v>1144.71015</v>
+        <v>970.30299</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1115.90193</v>
+        <v>970.29249</v>
       </c>
       <c r="C124" t="n">
-        <v>1115.90193</v>
+        <v>970.29249</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1160.84831</v>
+        <v>970.31911</v>
       </c>
       <c r="C125" t="n">
-        <v>1160.84831</v>
+        <v>970.31911</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>804.54404</v>
+        <v>970.37404</v>
       </c>
       <c r="C126" t="n">
-        <v>804.54404</v>
+        <v>970.37404</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>814.80463</v>
+        <v>970.42544</v>
       </c>
       <c r="C127" t="n">
-        <v>886.50953</v>
+        <v>970.42544</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1070.68033</v>
+        <v>970.49502</v>
       </c>
       <c r="C128" t="n">
-        <v>1070.68033</v>
+        <v>970.49502</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1109.72266</v>
+        <v>970.50458</v>
       </c>
       <c r="C129" t="n">
-        <v>1109.72266</v>
+        <v>970.50458</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>926.79902</v>
+        <v>970.41883</v>
       </c>
       <c r="C130" t="n">
-        <v>926.79902</v>
+        <v>970.41883</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>947.83733</v>
+        <v>970.30015</v>
       </c>
       <c r="C131" t="n">
-        <v>1291.52724</v>
+        <v>970.30015</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1122.33355</v>
+        <v>970.13914</v>
       </c>
       <c r="C132" t="n">
-        <v>1122.33355</v>
+        <v>970.13914</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1063.41428</v>
+        <v>969.97048</v>
       </c>
       <c r="C133" t="n">
-        <v>1063.41428</v>
+        <v>969.97048</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>830.16957</v>
+        <v>969.785</v>
       </c>
       <c r="C134" t="n">
-        <v>830.16957</v>
+        <v>969.785</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>827.21132</v>
+        <v>969.7031899999999</v>
       </c>
       <c r="C135" t="n">
-        <v>1094.77297</v>
+        <v>969.7031899999999</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1102.92647</v>
+        <v>969.55136</v>
       </c>
       <c r="C136" t="n">
-        <v>1102.92647</v>
+        <v>969.55136</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1281.18315</v>
+        <v>969.38251</v>
       </c>
       <c r="C137" t="n">
-        <v>1281.18315</v>
+        <v>969.38251</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>910.2839</v>
+        <v>1361.24109</v>
       </c>
       <c r="C138" t="n">
-        <v>910.2839</v>
+        <v>1361.24109</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>991.5764799999999</v>
+        <v>923.63094</v>
       </c>
       <c r="C139" t="n">
-        <v>991.5764799999999</v>
+        <v>923.63094</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>858.98524</v>
+        <v>962.51586</v>
       </c>
       <c r="C140" t="n">
-        <v>916.25243</v>
+        <v>962.51586</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1139.21732</v>
+        <v>971.91285</v>
       </c>
       <c r="C141" t="n">
-        <v>1139.21732</v>
+        <v>971.91285</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1165.68619</v>
+        <v>977.40202</v>
       </c>
       <c r="C142" t="n">
-        <v>1165.68619</v>
+        <v>977.40202</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1041.84357</v>
+        <v>978.37524</v>
       </c>
       <c r="C143" t="n">
-        <v>1041.84357</v>
+        <v>978.37524</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>958.27859</v>
+        <v>1373.046</v>
       </c>
       <c r="C144" t="n">
-        <v>958.27859</v>
+        <v>1373.046</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>983.34495</v>
+        <v>935.27309</v>
       </c>
       <c r="C145" t="n">
-        <v>1312.40361</v>
+        <v>935.27309</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1165.20059</v>
+        <v>970.3403499999999</v>
       </c>
       <c r="C146" t="n">
-        <v>1165.20059</v>
+        <v>970.3403499999999</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1227.73629</v>
+        <v>978.35378</v>
       </c>
       <c r="C147" t="n">
-        <v>1227.73629</v>
+        <v>978.35378</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>921.19022</v>
+        <v>983.46606</v>
       </c>
       <c r="C148" t="n">
-        <v>921.19022</v>
+        <v>983.46606</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>848.49113</v>
+        <v>1385.10166</v>
       </c>
       <c r="C149" t="n">
-        <v>946.79354</v>
+        <v>1385.10166</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1210.97602</v>
+        <v>942.60385</v>
       </c>
       <c r="C150" t="n">
-        <v>1210.97602</v>
+        <v>942.60385</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1220.33417</v>
+        <v>975.97786</v>
       </c>
       <c r="C151" t="n">
-        <v>1220.33417</v>
+        <v>975.97786</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1111.01247</v>
+        <v>983.76678</v>
       </c>
       <c r="C152" t="n">
-        <v>1111.01247</v>
+        <v>983.76678</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>999.70951</v>
+        <v>988.78378</v>
       </c>
       <c r="C153" t="n">
-        <v>999.70951</v>
+        <v>988.78378</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1002.05649</v>
+        <v>1416.76478</v>
       </c>
       <c r="C154" t="n">
-        <v>1698.06989</v>
+        <v>1416.76478</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1298.60422</v>
+        <v>940.59178</v>
       </c>
       <c r="C155" t="n">
-        <v>1298.60422</v>
+        <v>940.59178</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>966.16907</v>
+        <v>977.57962</v>
       </c>
       <c r="C156" t="n">
-        <v>966.16907</v>
+        <v>977.57962</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>839.46133</v>
+        <v>986.9326600000001</v>
       </c>
       <c r="C157" t="n">
-        <v>946.18256</v>
+        <v>986.9326600000001</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1122.55055</v>
+        <v>1394.18902</v>
       </c>
       <c r="C158" t="n">
-        <v>1122.55055</v>
+        <v>1394.18902</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1311.58284</v>
+        <v>955.77882</v>
       </c>
       <c r="C159" t="n">
-        <v>1311.58284</v>
+        <v>955.77882</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1417.2288</v>
+        <v>984.39401</v>
       </c>
       <c r="C160" t="n">
-        <v>1417.77031</v>
+        <v>984.39401</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>765.79701</v>
+        <v>993.57936</v>
       </c>
       <c r="C161" t="n">
-        <v>765.79197</v>
+        <v>993.57936</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>880.3146</v>
+        <v>1409.54673</v>
       </c>
       <c r="C162" t="n">
-        <v>1361.62852</v>
+        <v>1409.54673</v>
       </c>
     </row>
     <row r="163">
@@ -2221,10 +2221,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1194.93769</v>
+        <v>958.97461</v>
       </c>
       <c r="C163" t="n">
-        <v>1194.93769</v>
+        <v>958.97461</v>
       </c>
     </row>
     <row r="164">
@@ -2232,10 +2232,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1480.61594</v>
+        <v>988.68541</v>
       </c>
       <c r="C164" t="n">
-        <v>1480.61594</v>
+        <v>988.68541</v>
       </c>
     </row>
     <row r="165">
@@ -2243,10 +2243,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>763.1623499999999</v>
+        <v>998.03344</v>
       </c>
       <c r="C165" t="n">
-        <v>763.1623499999999</v>
+        <v>998.03344</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>848.74166</v>
+        <v>1420.27378</v>
       </c>
       <c r="C166" t="n">
-        <v>1001.89075</v>
+        <v>1420.27378</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1196.40795</v>
+        <v>961.5246100000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1196.40795</v>
+        <v>961.5246100000001</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1271.95278</v>
+        <v>991.86407</v>
       </c>
       <c r="C168" t="n">
-        <v>1271.95278</v>
+        <v>991.86407</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1462.49621</v>
+        <v>1001.50911</v>
       </c>
       <c r="C169" t="n">
-        <v>1462.49621</v>
+        <v>1001.50911</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>811.96948</v>
+        <v>1429.27216</v>
       </c>
       <c r="C170" t="n">
-        <v>811.96948</v>
+        <v>1429.27216</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>891.64096</v>
+        <v>963.78351</v>
       </c>
       <c r="C171" t="n">
-        <v>1387.11797</v>
+        <v>963.78351</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1200.85254</v>
+        <v>995.79855</v>
       </c>
       <c r="C172" t="n">
-        <v>1200.85254</v>
+        <v>995.79855</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1450.37816</v>
+        <v>1006.12205</v>
       </c>
       <c r="C173" t="n">
-        <v>1450.37816</v>
+        <v>1006.12205</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>870.00558</v>
+        <v>1430.90378</v>
       </c>
       <c r="C174" t="n">
-        <v>870.00558</v>
+        <v>1430.90378</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>845.85653</v>
+        <v>969.6715</v>
       </c>
       <c r="C175" t="n">
-        <v>979.44729</v>
+        <v>969.6715</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1184.35639</v>
+        <v>1001.7312</v>
       </c>
       <c r="C176" t="n">
-        <v>1184.35639</v>
+        <v>1001.7312</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1281.95118</v>
+        <v>1011.1373</v>
       </c>
       <c r="C177" t="n">
-        <v>1281.95118</v>
+        <v>1011.1373</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1447.84455</v>
+        <v>1425.26564</v>
       </c>
       <c r="C178" t="n">
-        <v>1448.5689</v>
+        <v>1425.26564</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>763.34667</v>
+        <v>978.5474400000001</v>
       </c>
       <c r="C179" t="n">
-        <v>763.39421</v>
+        <v>978.5474400000001</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>886.57967</v>
+        <v>1008.86202</v>
       </c>
       <c r="C180" t="n">
-        <v>1374.18433</v>
+        <v>1008.86202</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1197.57196</v>
+        <v>1016.835</v>
       </c>
       <c r="C181" t="n">
-        <v>1197.57196</v>
+        <v>1016.835</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1446.61983</v>
+        <v>1021.95637</v>
       </c>
       <c r="C182" t="n">
-        <v>1446.61983</v>
+        <v>1021.95637</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>879.64869</v>
+        <v>1470.75375</v>
       </c>
       <c r="C183" t="n">
-        <v>879.64869</v>
+        <v>1470.75375</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>843.22788</v>
+        <v>970.07743</v>
       </c>
       <c r="C184" t="n">
-        <v>972.2094499999999</v>
+        <v>970.07743</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1159.02697</v>
+        <v>1012.34262</v>
       </c>
       <c r="C185" t="n">
-        <v>1159.02697</v>
+        <v>1012.34262</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1294.35202</v>
+        <v>1022.24007</v>
       </c>
       <c r="C186" t="n">
-        <v>1294.35202</v>
+        <v>1022.24007</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1450.31552</v>
+        <v>1028.7865</v>
       </c>
       <c r="C187" t="n">
-        <v>1450.31552</v>
+        <v>1028.7865</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>803.43511</v>
+        <v>1459.15088</v>
       </c>
       <c r="C188" t="n">
-        <v>803.43511</v>
+        <v>1459.15088</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>887.77003</v>
+        <v>982.58072</v>
       </c>
       <c r="C189" t="n">
-        <v>1358.67356</v>
+        <v>982.58072</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1202.68159</v>
+        <v>1022.47823</v>
       </c>
       <c r="C190" t="n">
-        <v>1202.68159</v>
+        <v>1022.47823</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1396.83187</v>
+        <v>1031.59813</v>
       </c>
       <c r="C191" t="n">
-        <v>1396.83187</v>
+        <v>1031.59813</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>833.63013</v>
+        <v>1037.39439</v>
       </c>
       <c r="C192" t="n">
-        <v>833.63013</v>
+        <v>1037.39439</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>852.90934</v>
+        <v>1038.55172</v>
       </c>
       <c r="C193" t="n">
-        <v>1033.98862</v>
+        <v>1038.55172</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1183.95326</v>
+        <v>1463.57123</v>
       </c>
       <c r="C194" t="n">
-        <v>1183.95326</v>
+        <v>1463.57123</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1264.34751</v>
+        <v>989.72466</v>
       </c>
       <c r="C195" t="n">
-        <v>1264.34751</v>
+        <v>989.72466</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1426.70857</v>
+        <v>1030.93503</v>
       </c>
       <c r="C196" t="n">
-        <v>1427.49913</v>
+        <v>1030.93503</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>764.12373</v>
+        <v>1039.83757</v>
       </c>
       <c r="C197" t="n">
-        <v>764.20626</v>
+        <v>1039.83757</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>882.05463</v>
+        <v>1044.85983</v>
       </c>
       <c r="C198" t="n">
-        <v>1275.18013</v>
+        <v>1044.85983</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1202.66743</v>
+        <v>1045.61334</v>
       </c>
       <c r="C199" t="n">
-        <v>1202.66743</v>
+        <v>1045.61334</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1349.47528</v>
+        <v>1044.96318</v>
       </c>
       <c r="C200" t="n">
-        <v>1349.47528</v>
+        <v>1044.96318</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>796.0747699999999</v>
+        <v>1044.02826</v>
       </c>
       <c r="C201" t="n">
-        <v>796.0747699999999</v>
+        <v>1044.02826</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>843.78295</v>
+        <v>1043.06401</v>
       </c>
       <c r="C202" t="n">
-        <v>1100.38894</v>
+        <v>1043.06401</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1168.4201</v>
+        <v>1393.20873</v>
       </c>
       <c r="C203" t="n">
-        <v>1168.4201</v>
+        <v>1393.20873</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1292.72997</v>
+        <v>1011.57492</v>
       </c>
       <c r="C204" t="n">
-        <v>1292.72997</v>
+        <v>1011.57492</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1400.48645</v>
+        <v>1042.27971</v>
       </c>
       <c r="C205" t="n">
-        <v>1401.39805</v>
+        <v>1042.27971</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>772.1594</v>
+        <v>1048.12183</v>
       </c>
       <c r="C206" t="n">
-        <v>772.25042</v>
+        <v>1048.12183</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>850.8354399999999</v>
+        <v>1050.77603</v>
       </c>
       <c r="C207" t="n">
-        <v>1130.86137</v>
+        <v>1050.77603</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1212.46055</v>
+        <v>1050.42441</v>
       </c>
       <c r="C208" t="n">
-        <v>1212.46055</v>
+        <v>1050.42441</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1278.68095</v>
+        <v>1049.11249</v>
       </c>
       <c r="C209" t="n">
-        <v>1278.68095</v>
+        <v>1049.11249</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>745.22126</v>
+        <v>1047.69087</v>
       </c>
       <c r="C210" t="n">
-        <v>745.22126</v>
+        <v>1047.69087</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>827.24758</v>
+        <v>1046.38628</v>
       </c>
       <c r="C211" t="n">
-        <v>1226.33905</v>
+        <v>1046.38628</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1172.6099</v>
+        <v>1045.15912</v>
       </c>
       <c r="C212" t="n">
-        <v>1172.6099</v>
+        <v>1045.15912</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1403.94396</v>
+        <v>1044.01533</v>
       </c>
       <c r="C213" t="n">
-        <v>1403.94396</v>
+        <v>1044.01533</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>782.71924</v>
+        <v>1043.01359</v>
       </c>
       <c r="C214" t="n">
-        <v>782.71924</v>
+        <v>1043.01359</v>
       </c>
     </row>
     <row r="215">
@@ -2793,10 +2793,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>857.45496</v>
+        <v>1042.14075</v>
       </c>
       <c r="C215" t="n">
-        <v>1302.05808</v>
+        <v>1042.14075</v>
       </c>
     </row>
     <row r="216">
@@ -2804,10 +2804,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1194.52667</v>
+        <v>1041.39602</v>
       </c>
       <c r="C216" t="n">
-        <v>1194.52667</v>
+        <v>1041.39602</v>
       </c>
     </row>
     <row r="217">
@@ -2815,10 +2815,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1420.77329</v>
+        <v>1040.75653</v>
       </c>
       <c r="C217" t="n">
-        <v>1420.77329</v>
+        <v>1040.75653</v>
       </c>
     </row>
     <row r="218">
@@ -2826,10 +2826,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>780.32124</v>
+        <v>1040.20277</v>
       </c>
       <c r="C218" t="n">
-        <v>780.32124</v>
+        <v>1040.20277</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>846.41576</v>
+        <v>1039.2967</v>
       </c>
       <c r="C219" t="n">
-        <v>1262.65617</v>
+        <v>1039.2967</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1189.69931</v>
+        <v>1038.3987</v>
       </c>
       <c r="C220" t="n">
-        <v>1189.69931</v>
+        <v>1038.3987</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1408.91726</v>
+        <v>1037.47209</v>
       </c>
       <c r="C221" t="n">
-        <v>1408.91726</v>
+        <v>1037.47209</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>778.41324</v>
+        <v>1036.46893</v>
       </c>
       <c r="C222" t="n">
-        <v>778.41324</v>
+        <v>1036.46893</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>842.30245</v>
+        <v>1035.42852</v>
       </c>
       <c r="C223" t="n">
-        <v>1241.65503</v>
+        <v>1035.42852</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1119.33702</v>
+        <v>1034.40051</v>
       </c>
       <c r="C224" t="n">
-        <v>1119.33702</v>
+        <v>1034.40051</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1347.28847</v>
+        <v>1033.39689</v>
       </c>
       <c r="C225" t="n">
-        <v>1347.28847</v>
+        <v>1033.39689</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>774.68603</v>
+        <v>1032.43492</v>
       </c>
       <c r="C226" t="n">
-        <v>774.68603</v>
+        <v>1032.43492</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>841.18346</v>
+        <v>1031.47688</v>
       </c>
       <c r="C227" t="n">
-        <v>1259.19441</v>
+        <v>1031.47688</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1150.45963</v>
+        <v>1030.51689</v>
       </c>
       <c r="C228" t="n">
-        <v>1150.45963</v>
+        <v>1030.51689</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1371.87946</v>
+        <v>1029.55074</v>
       </c>
       <c r="C229" t="n">
-        <v>1371.87946</v>
+        <v>1029.55074</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>773.65084</v>
+        <v>1028.57411</v>
       </c>
       <c r="C230" t="n">
-        <v>773.65084</v>
+        <v>1028.57411</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>836.61314</v>
+        <v>1027.38788</v>
       </c>
       <c r="C231" t="n">
-        <v>1244.08211</v>
+        <v>1027.38788</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1070.93836</v>
+        <v>1026.13951</v>
       </c>
       <c r="C232" t="n">
-        <v>1070.93836</v>
+        <v>1026.13951</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1302.40327</v>
+        <v>1024.915</v>
       </c>
       <c r="C233" t="n">
-        <v>1302.40327</v>
+        <v>1024.915</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>771.08343</v>
+        <v>1023.75099</v>
       </c>
       <c r="C234" t="n">
-        <v>771.08343</v>
+        <v>1023.75099</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>842.4011</v>
+        <v>1022.6379</v>
       </c>
       <c r="C235" t="n">
-        <v>1276.63681</v>
+        <v>1022.6379</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1144.15404</v>
+        <v>1021.50931</v>
       </c>
       <c r="C236" t="n">
-        <v>1144.15404</v>
+        <v>1021.50931</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1406.30264</v>
+        <v>1020.38525</v>
       </c>
       <c r="C237" t="n">
-        <v>1406.30264</v>
+        <v>1020.38525</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>785.24889</v>
+        <v>1019.24616</v>
       </c>
       <c r="C238" t="n">
-        <v>785.24889</v>
+        <v>1019.24616</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>829.87902</v>
+        <v>1018.08544</v>
       </c>
       <c r="C239" t="n">
-        <v>1176.90254</v>
+        <v>1018.08544</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>969.33469</v>
+        <v>1016.89757</v>
       </c>
       <c r="C240" t="n">
-        <v>969.33469</v>
+        <v>1016.89757</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1277.77588</v>
+        <v>1015.71405</v>
       </c>
       <c r="C241" t="n">
-        <v>1277.77588</v>
+        <v>1015.71405</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>733.11204</v>
+        <v>1014.50747</v>
       </c>
       <c r="C242" t="n">
-        <v>733.11204</v>
+        <v>1014.50747</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>796.28945</v>
+        <v>1013.21953</v>
       </c>
       <c r="C243" t="n">
-        <v>945.28892</v>
+        <v>1013.21953</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>900.52978</v>
+        <v>1011.92539</v>
       </c>
       <c r="C244" t="n">
-        <v>900.52978</v>
+        <v>1011.92539</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1191.39068</v>
+        <v>1010.61574</v>
       </c>
       <c r="C245" t="n">
-        <v>1191.39068</v>
+        <v>1010.61574</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1367.2691</v>
+        <v>1009.27356</v>
       </c>
       <c r="C246" t="n">
-        <v>1367.2691</v>
+        <v>1009.27356</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>799.24184</v>
+        <v>1007.90761</v>
       </c>
       <c r="C247" t="n">
-        <v>799.24184</v>
+        <v>1007.90761</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>825.64252</v>
+        <v>1006.53463</v>
       </c>
       <c r="C248" t="n">
-        <v>825.37424</v>
+        <v>1006.53463</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>906.25832</v>
+        <v>1005.12809</v>
       </c>
       <c r="C249" t="n">
-        <v>906.25832</v>
+        <v>1005.12809</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1218.30463</v>
+        <v>1003.70263</v>
       </c>
       <c r="C250" t="n">
-        <v>1218.30463</v>
+        <v>1003.70263</v>
       </c>
     </row>
     <row r="251">
@@ -3189,10 +3189,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1348.07524</v>
+        <v>1002.27017</v>
       </c>
       <c r="C251" t="n">
-        <v>1348.07524</v>
+        <v>1002.27017</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>796.70304</v>
+        <v>1000.82466</v>
       </c>
       <c r="C252" t="n">
-        <v>796.70304</v>
+        <v>1000.82466</v>
       </c>
     </row>
     <row r="253">
@@ -3211,10 +3211,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>831.04742</v>
+        <v>999.36035</v>
       </c>
       <c r="C253" t="n">
-        <v>830.79166</v>
+        <v>999.36035</v>
       </c>
     </row>
     <row r="254">
@@ -3222,10 +3222,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>905.75938</v>
+        <v>997.8727</v>
       </c>
       <c r="C254" t="n">
-        <v>905.75938</v>
+        <v>997.8727</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1223.38195</v>
+        <v>996.52682</v>
       </c>
       <c r="C255" t="n">
-        <v>1223.38195</v>
+        <v>996.52682</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>811.13788</v>
+        <v>995.2354</v>
       </c>
       <c r="C256" t="n">
-        <v>811.13788</v>
+        <v>995.2354</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>800.67401</v>
+        <v>993.96912</v>
       </c>
       <c r="C257" t="n">
-        <v>1048.58958</v>
+        <v>993.96912</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>898.87125</v>
+        <v>992.7545</v>
       </c>
       <c r="C258" t="n">
-        <v>898.87125</v>
+        <v>992.7545</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1330.39212</v>
+        <v>991.57518</v>
       </c>
       <c r="C259" t="n">
-        <v>1330.39212</v>
+        <v>991.57518</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>608.3215300000001</v>
+        <v>990.42332</v>
       </c>
       <c r="C260" t="n">
-        <v>608.3215300000001</v>
+        <v>990.42332</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>780.25198</v>
+        <v>989.29751</v>
       </c>
       <c r="C261" t="n">
-        <v>780.25198</v>
+        <v>989.29751</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>888.61961</v>
+        <v>988.18774</v>
       </c>
       <c r="C262" t="n">
-        <v>888.61961</v>
+        <v>988.18774</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1358.0472</v>
+        <v>987.09996</v>
       </c>
       <c r="C263" t="n">
-        <v>1358.0472</v>
+        <v>987.09996</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>605.08989</v>
+        <v>986.04034</v>
       </c>
       <c r="C264" t="n">
-        <v>605.08989</v>
+        <v>986.04034</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>760.84672</v>
+        <v>984.97824</v>
       </c>
       <c r="C265" t="n">
-        <v>760.84672</v>
+        <v>984.97824</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>881.16174</v>
+        <v>983.9401</v>
       </c>
       <c r="C266" t="n">
-        <v>881.16174</v>
+        <v>983.9401</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1278.81879</v>
+        <v>983.01519</v>
       </c>
       <c r="C267" t="n">
-        <v>1278.81879</v>
+        <v>983.01519</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>664.23813</v>
+        <v>982.1740600000001</v>
       </c>
       <c r="C268" t="n">
-        <v>664.23813</v>
+        <v>982.1740600000001</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>777.32438</v>
+        <v>981.37436</v>
       </c>
       <c r="C269" t="n">
-        <v>777.32438</v>
+        <v>981.37436</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>882.53415</v>
+        <v>980.6231299999999</v>
       </c>
       <c r="C270" t="n">
-        <v>882.53415</v>
+        <v>980.6231299999999</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1365.41626</v>
+        <v>979.89902</v>
       </c>
       <c r="C271" t="n">
-        <v>1365.41626</v>
+        <v>979.89902</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>610.20968</v>
+        <v>979.21414</v>
       </c>
       <c r="C272" t="n">
-        <v>610.20968</v>
+        <v>979.21414</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>760.37112</v>
+        <v>978.54489</v>
       </c>
       <c r="C273" t="n">
-        <v>760.37112</v>
+        <v>978.54489</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>864.08719</v>
+        <v>977.89846</v>
       </c>
       <c r="C274" t="n">
-        <v>864.08719</v>
+        <v>977.89846</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1228.88683</v>
+        <v>977.27112</v>
       </c>
       <c r="C275" t="n">
-        <v>1228.88683</v>
+        <v>977.27112</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>812.20597</v>
+        <v>976.67232</v>
       </c>
       <c r="C276" t="n">
-        <v>812.20597</v>
+        <v>976.67232</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>879.7903</v>
+        <v>976.0739600000001</v>
       </c>
       <c r="C277" t="n">
-        <v>879.7903</v>
+        <v>976.0739600000001</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>814.98235</v>
+        <v>975.48017</v>
       </c>
       <c r="C278" t="n">
-        <v>968.62951</v>
+        <v>975.48017</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>909.82988</v>
+        <v>975.0574</v>
       </c>
       <c r="C279" t="n">
-        <v>1211.89792</v>
+        <v>975.0574</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1124.80086</v>
+        <v>974.69039</v>
       </c>
       <c r="C280" t="n">
-        <v>1124.80086</v>
+        <v>974.69039</v>
       </c>
     </row>
     <row r="281">
@@ -3519,10 +3519,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1250.12682</v>
+        <v>974.36279</v>
       </c>
       <c r="C281" t="n">
-        <v>1250.12682</v>
+        <v>974.36279</v>
       </c>
     </row>
     <row r="282">
@@ -3530,10 +3530,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>752.2897</v>
+        <v>974.07886</v>
       </c>
       <c r="C282" t="n">
-        <v>752.35358</v>
+        <v>974.07886</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>807.46731</v>
+        <v>973.83858</v>
       </c>
       <c r="C283" t="n">
-        <v>807.3028399999999</v>
+        <v>973.83858</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>889.49175</v>
+        <v>973.63453</v>
       </c>
       <c r="C284" t="n">
-        <v>889.49175</v>
+        <v>973.63453</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1189.74516</v>
+        <v>973.46326</v>
       </c>
       <c r="C285" t="n">
-        <v>1189.74516</v>
+        <v>973.46326</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>754.35965</v>
+        <v>973.31227</v>
       </c>
       <c r="C286" t="n">
-        <v>754.35965</v>
+        <v>973.31227</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>774.79814</v>
+        <v>973.17475</v>
       </c>
       <c r="C287" t="n">
-        <v>774.79814</v>
+        <v>973.17475</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>876.2980700000001</v>
+        <v>973.07173</v>
       </c>
       <c r="C288" t="n">
-        <v>1722.52104</v>
+        <v>973.07173</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1257.70524</v>
+        <v>973.02726</v>
       </c>
       <c r="C289" t="n">
-        <v>1257.70524</v>
+        <v>973.02726</v>
       </c>
     </row>
   </sheetData>
